--- a/EA_QUEST3/EA_QUEST3_rep/Tables_56_multipliers_investment.xlsx
+++ b/EA_QUEST3/EA_QUEST3_rep/Tables_56_multipliers_investment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\EA_QUEST3_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47BE60-704F-4FAD-9E8C-4780AC71B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5DE32-28C7-4C24-86E0-90D9554FFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Quarter 1</t>
   </si>
@@ -100,78 +100,6 @@
     <t xml:space="preserve">Image to copy: </t>
   </si>
   <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
     <t>Year 5</t>
   </si>
   <si>
@@ -251,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -267,12 +195,6 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -299,7 +221,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -309,7 +231,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -318,10 +240,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -330,18 +252,18 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -349,11 +271,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -362,37 +284,37 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -402,7 +324,7 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -410,33 +332,33 @@
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -444,89 +366,81 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +459,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -574,7 +488,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1047"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s1048"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -615,7 +529,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -644,7 +558,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2068"/>
+                  <a14:cameraTool cellRange="$B$2:$N$5" spid="_x0000_s2069"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -983,100 +897,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="21" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="21" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.0093828908854272225</v>
-      </c>
-      <c r="D4" s="19">
+        <v>9.3828908854272225E-3</v>
+      </c>
+      <c r="D4" s="10">
         <v>0.61759567512784552</v>
       </c>
       <c r="E4" s="11">
@@ -1103,19 +1015,19 @@
       <c r="L4" s="12">
         <v>0.56137467515605277</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="10">
         <v>0.77907862614697021</v>
       </c>
       <c r="N4" s="13">
         <v>1.0299422235426443</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14">
-        <v>0.0093828908854272225</v>
+        <v>9.3828908854272225E-3</v>
       </c>
       <c r="D5" s="15">
         <v>0.61759567512784552</v>
@@ -1144,15 +1056,15 @@
       <c r="L5" s="17">
         <v>0.4803065482826438</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="15">
         <v>0.73507531155658412</v>
       </c>
       <c r="N5" s="18">
         <v>1.0006516842539361</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="11">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="11" spans="2:14">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1078,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1177,93 +1089,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D417769-54D5-4768-BDEF-383B95488C3B}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="6" style="1" customWidth="true"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="6" style="1" customWidth="true"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
-    <col min="9" max="9" width="5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="6" style="1" customWidth="true"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
-    <col min="12" max="12" width="5" style="1" customWidth="true"/>
-    <col min="13" max="13" width="6" style="1" customWidth="true"/>
-    <col min="14" max="14" width="6.140625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" thickBot="true"/>
-    <row r="2" ht="15" thickTop="true">
+    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15" thickTop="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:14">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1214,7 @@
         <v>11.655665724864683</v>
       </c>
     </row>
-    <row r="5" ht="15" thickBot="true">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1345,8 +1255,8 @@
         <v>2.2996693741909855</v>
       </c>
     </row>
-    <row r="6" ht="15" thickTop="true"/>
-    <row r="9">
+    <row r="6" spans="2:14" ht="15" thickTop="1"/>
+    <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1270,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/EA_QUEST3/EA_QUEST3_rep/Tables_56_multipliers_investment.xlsx
+++ b/EA_QUEST3/EA_QUEST3_rep/Tables_56_multipliers_investment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5DE32-28C7-4C24-86E0-90D9554FFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="1" r:id="rId1"/>
     <sheet name="LR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="708">
   <si>
     <t>Quarter 1</t>
   </si>
@@ -101,6 +101,2022 @@
   </si>
   <si>
     <t>Year 5</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>95%</t>
   </si>
   <si>
     <t>5%</t>
@@ -204,7 +2220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -221,7 +2237,7 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -231,7 +2247,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -240,10 +2256,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -252,18 +2268,18 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -271,11 +2287,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -284,37 +2300,37 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -324,7 +2340,7 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -332,33 +2348,33 @@
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -366,81 +2382,83 @@
     <border>
       <left/>
       <right style="dashed">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="double">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +2477,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -529,7 +2547,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -897,29 +2915,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.7109375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="6" style="1" customWidth="true"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
+    <col min="6" max="6" width="5" style="1" customWidth="true"/>
+    <col min="7" max="7" width="6" style="1" customWidth="true"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
+    <col min="9" max="9" width="5" style="1" customWidth="true"/>
+    <col min="10" max="10" width="6" style="1" customWidth="true"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="5" style="1" customWidth="true"/>
+    <col min="13" max="13" width="6" style="1" customWidth="true"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="true"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15" thickTop="1">
+    <row r="1" ht="15" thickBot="true"/>
+    <row r="2" ht="15" thickTop="true">
       <c r="B2" s="4"/>
       <c r="C2" s="19" t="s">
         <v>0</v>
@@ -942,129 +2960,129 @@
       <c r="M2" s="20"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>684</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>685</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>686</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>687</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>688</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>17</v>
+        <v>689</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
+        <v>690</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>691</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>693</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>694</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>695</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>9.3828908854272225E-3</v>
+        <v>-0.0069675174312033962</v>
       </c>
       <c r="D4" s="10">
-        <v>0.61759567512784552</v>
+        <v>0.52865185841973306</v>
       </c>
       <c r="E4" s="11">
-        <v>1.0609197102137022</v>
+        <v>0.92140062925235178</v>
       </c>
       <c r="F4" s="9">
-        <v>0.33830548755062739</v>
+        <v>0.32120447397371366</v>
       </c>
       <c r="G4" s="10">
-        <v>0.69223698780570475</v>
+        <v>0.65010699484460999</v>
       </c>
       <c r="H4" s="11">
-        <v>0.97687999784269164</v>
+        <v>0.94379537985711282</v>
       </c>
       <c r="I4" s="9">
-        <v>0.50598440570569514</v>
+        <v>0.46495263818977056</v>
       </c>
       <c r="J4" s="10">
-        <v>0.74709242647568319</v>
+        <v>0.72807985546455445</v>
       </c>
       <c r="K4" s="11">
-        <v>0.98828199289570384</v>
+        <v>0.93703858426768483</v>
       </c>
       <c r="L4" s="12">
-        <v>0.56137467515605277</v>
+        <v>0.54563579959003183</v>
       </c>
       <c r="M4" s="10">
-        <v>0.77907862614697021</v>
+        <v>0.77485933981685695</v>
       </c>
       <c r="N4" s="13">
-        <v>1.0299422235426443</v>
+        <v>0.96611199410126647</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" ht="15" thickBot="true">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14">
-        <v>9.3828908854272225E-3</v>
+        <v>-0.0069675174312033962</v>
       </c>
       <c r="D5" s="15">
-        <v>0.61759567512784552</v>
+        <v>0.52865185841973306</v>
       </c>
       <c r="E5" s="16">
-        <v>1.0609197102137022</v>
+        <v>0.92140062925235178</v>
       </c>
       <c r="F5" s="14">
-        <v>0.2148796422784634</v>
+        <v>0.26305330183955927</v>
       </c>
       <c r="G5" s="15">
-        <v>0.66887096862460094</v>
+        <v>0.61253293916758289</v>
       </c>
       <c r="H5" s="16">
-        <v>0.99590549453882604</v>
+        <v>0.93656865305990455</v>
       </c>
       <c r="I5" s="14">
-        <v>0.38708252310710917</v>
+        <v>0.36218740690554302</v>
       </c>
       <c r="J5" s="15">
-        <v>0.70810456221597506</v>
+        <v>0.67103673682517984</v>
       </c>
       <c r="K5" s="16">
-        <v>0.99622754600068664</v>
+        <v>0.94778728922210864</v>
       </c>
       <c r="L5" s="17">
-        <v>0.4803065482826438</v>
+        <v>0.44059282089918822</v>
       </c>
       <c r="M5" s="15">
-        <v>0.73507531155658412</v>
+        <v>0.71097468967947786</v>
       </c>
       <c r="N5" s="18">
-        <v>1.0006516842539361</v>
+        <v>0.94537688493958272</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1"/>
-    <row r="11" spans="2:14">
+    <row r="6" ht="15" thickTop="true"/>
+    <row r="11">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +3096,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1089,29 +3107,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D417769-54D5-4768-BDEF-383B95488C3B}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="6" style="1" customWidth="true"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="true"/>
+    <col min="6" max="6" width="5" style="1" customWidth="true"/>
+    <col min="7" max="7" width="6" style="1" customWidth="true"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="true"/>
+    <col min="9" max="9" width="5" style="1" customWidth="true"/>
+    <col min="10" max="10" width="6" style="1" customWidth="true"/>
+    <col min="11" max="11" width="5.28515625" style="1" customWidth="true"/>
+    <col min="12" max="12" width="5" style="1" customWidth="true"/>
+    <col min="13" max="13" width="6.140625" style="1" customWidth="true"/>
+    <col min="14" max="14" width="6.140625" style="1" customWidth="true"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1"/>
-    <row r="2" spans="2:14" ht="15" thickTop="1">
+    <row r="1" ht="15" thickBot="true"/>
+    <row r="2" ht="15" thickTop="true">
       <c r="B2" s="4"/>
       <c r="C2" s="23" t="s">
         <v>6</v>
@@ -1134,129 +3152,129 @@
       <c r="M2" s="20"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3">
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>696</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>697</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>698</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>699</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>701</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>702</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>703</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>704</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>705</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>706</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
+        <v>707</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9">
-        <v>0.53219775563779359</v>
+        <v>0.73369892422365968</v>
       </c>
       <c r="D4" s="10">
-        <v>0.95315842326831812</v>
+        <v>0.97015799607670505</v>
       </c>
       <c r="E4" s="11">
-        <v>1.4445687401254417</v>
+        <v>1.2362398550379865</v>
       </c>
       <c r="F4" s="9">
-        <v>0.57998901343606257</v>
+        <v>0.91737692015782435</v>
       </c>
       <c r="G4" s="10">
-        <v>1.4464606964212905</v>
+        <v>1.282166087133255</v>
       </c>
       <c r="H4" s="11">
-        <v>2.6673044797824419</v>
+        <v>2.5743297503261484</v>
       </c>
       <c r="I4" s="9">
-        <v>0.9592498508883347</v>
+        <v>1.1003021299683733</v>
       </c>
       <c r="J4" s="10">
-        <v>2.5812455007437696</v>
+        <v>1.750381130319776</v>
       </c>
       <c r="K4" s="11">
-        <v>5.446054503314377</v>
+        <v>6.3853171713902146</v>
       </c>
       <c r="L4" s="12">
-        <v>1.7334034289699538</v>
+        <v>1.4923552802895177</v>
       </c>
       <c r="M4" s="10">
-        <v>4.7725336187050678</v>
+        <v>11.62551720596276</v>
       </c>
       <c r="N4" s="13">
-        <v>11.655665724864683</v>
+        <v>17.528090351754344</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" ht="15" thickBot="true">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14">
-        <v>0.58716764665021703</v>
+        <v>0.59991394006018273</v>
       </c>
       <c r="D5" s="15">
-        <v>0.82171626015783306</v>
+        <v>0.8191013032082779</v>
       </c>
       <c r="E5" s="16">
-        <v>1.1230464373975799</v>
+        <v>1.0247617728093665</v>
       </c>
       <c r="F5" s="14">
-        <v>0.59155896511373085</v>
+        <v>0.7233541314537929</v>
       </c>
       <c r="G5" s="15">
-        <v>0.94685080543503775</v>
+        <v>0.94067275589315136</v>
       </c>
       <c r="H5" s="16">
-        <v>1.3786907268677582</v>
+        <v>1.1517156873646033</v>
       </c>
       <c r="I5" s="14">
-        <v>0.63528157270590024</v>
+        <v>0.81262114114155992</v>
       </c>
       <c r="J5" s="15">
-        <v>1.127793154842605</v>
+        <v>1.0959629978642922</v>
       </c>
       <c r="K5" s="16">
-        <v>1.7662622996910562</v>
+        <v>1.3645097694582562</v>
       </c>
       <c r="L5" s="17">
-        <v>0.6967310504391433</v>
+        <v>0.93759711046798488</v>
       </c>
       <c r="M5" s="15">
-        <v>1.3539237213620876</v>
+        <v>1.2758278454523335</v>
       </c>
       <c r="N5" s="18">
-        <v>2.2996693741909855</v>
+        <v>1.6002149539189632</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1"/>
-    <row r="9" spans="2:14">
+    <row r="6" ht="15" thickTop="true"/>
+    <row r="9">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +3288,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:N3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:N3" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
